--- a/task1(unique_rank).xlsx
+++ b/task1(unique_rank).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Arc Da\Excel\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Arc Da\Excel\task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{768D0CE5-76F1-4852-803B-57B82CF34B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25F41B-5457-48CC-84B0-01D4C431A4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8B01481-A131-4B65-AD98-DD5A9DCBA7AE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Brand_id</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>sort</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,6 +198,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -204,13 +218,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBE5E8-6867-45D6-A9C2-07D651250B6C}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,12 +552,12 @@
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I1" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,367 +600,370 @@
       <c r="N3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="O3" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <f>ROW()-ROW($A$3)</f>
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>20</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>40</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>50</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f>SUM(C4:G4)</f>
         <v>150</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f>H4+(H4*$I$1)</f>
         <v>157.5</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f>_xlfn.RANK.AVG(I4,$I$4:$I$10,1)</f>
         <v>3</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <f>RANK(I4,$I$4:$I$10,1)</f>
         <v>3</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <f>_xlfn.RANK.EQ(I4,$I$4:$I$10,1)</f>
         <v>3</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <f>COUNTIFS($I$4:$I$10, "&lt;"&amp;I4)+1</f>
         <v>3</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <f>RANK(I4,$I$4:$I$10,1)+COUNTIFS($I$4:I4,I4)-1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <f t="shared" ref="A5:A10" si="0">ROW()-ROW($A$3)</f>
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>100</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>30</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>150</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>45</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>55</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f t="shared" ref="H5" si="1">SUM(C5:G5)</f>
         <v>380</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f t="shared" ref="I5:I10" si="2">H5+(H5*$I$1)</f>
         <v>399</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f t="shared" ref="J5:J10" si="3">_xlfn.RANK.AVG(I5,$I$4:$I$10,1)</f>
         <v>4.5</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f t="shared" ref="K5:K10" si="4">RANK(I5,$I$4:$I$10,1)</f>
         <v>4</v>
       </c>
-      <c r="L5" s="9">
-        <f t="shared" ref="K5:L10" si="5">_xlfn.RANK.EQ(I5,$I$4:$I$10,1)</f>
+      <c r="L5" s="8">
+        <f t="shared" ref="L5:L10" si="5">_xlfn.RANK.EQ(I5,$I$4:$I$10,1)</f>
         <v>4</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <f t="shared" ref="M5:M10" si="6">COUNTIFS($I$4:$I$10, "&lt;"&amp;I5)+1</f>
         <v>4</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <f>RANK(I5,$I$4:$I$10,1)+COUNTIFS($I$4:I5,I5)-1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>100</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>30</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>150</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>45</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>55</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f t="shared" ref="H6:H10" si="7">SUM(C6:G6)</f>
         <v>380</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f t="shared" si="2"/>
         <v>399</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <f>RANK(I6,$I$4:$I$10,1)+COUNTIFS($I$4:I6,I6)-1</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>190</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>55</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>200</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f t="shared" si="7"/>
         <v>445</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f t="shared" si="2"/>
         <v>467.25</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <f>RANK(I7,$I$4:$I$10,1)+COUNTIFS($I$4:I7,I7)-1</f>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>250</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>67</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>45</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>89</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <f t="shared" si="7"/>
         <v>451</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <f t="shared" si="2"/>
         <v>473.55</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <f>RANK(I8,$I$4:$I$10,1)+COUNTIFS($I$4:I8,I8)-1</f>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>20</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f t="shared" si="2"/>
         <v>26.25</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <f>RANK(I9,$I$4:$I$10,1)+COUNTIFS($I$4:I9,I9)-1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>5</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>20</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <f t="shared" si="2"/>
         <v>33.6</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <f>RANK(I10,$I$4:$I$10,1)+COUNTIFS($I$4:I10,I10)-1</f>
         <v>2</v>
       </c>

--- a/task1(unique_rank).xlsx
+++ b/task1(unique_rank).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Arc Da\Excel\task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25F41B-5457-48CC-84B0-01D4C431A4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEA93BC-84A0-4066-952F-6E0452CC3A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8B01481-A131-4B65-AD98-DD5A9DCBA7AE}"/>
   </bookViews>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Brand_id</t>
   </si>
@@ -97,6 +119,9 @@
   </si>
   <si>
     <t>sort</t>
+  </si>
+  <si>
+    <t>rank</t>
   </si>
 </sst>
 </file>
@@ -175,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,22 +223,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -224,7 +238,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BBE5E8-6867-45D6-A9C2-07D651250B6C}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,12 +565,12 @@
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I1" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -600,11 +613,14 @@
       <c r="N3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="P3" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <f>ROW()-ROW($A$3)</f>
         <v>1</v>
@@ -655,8 +671,16 @@
         <f>RANK(I4,$I$4:$I$10,1)+COUNTIFS($I$4:I4,I4)-1</f>
         <v>3</v>
       </c>
+      <c r="O4" s="8" cm="1">
+        <f t="array" ref="O4:O10">_xlfn._xlws.SORT(H4:H10)</f>
+        <v>25</v>
+      </c>
+      <c r="P4" s="9">
+        <f>ROW()-ROW($A$3)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <f t="shared" ref="A5:A10" si="0">ROW()-ROW($A$3)</f>
         <v>2</v>
@@ -707,8 +731,15 @@
         <f>RANK(I5,$I$4:$I$10,1)+COUNTIFS($I$4:I5,I5)-1</f>
         <v>4</v>
       </c>
+      <c r="O5" s="8">
+        <v>32</v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" ref="P5:P10" si="7">ROW()-ROW($A$3)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -732,7 +763,7 @@
         <v>55</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" ref="H6:H10" si="7">SUM(C6:G6)</f>
+        <f t="shared" ref="H6:H10" si="8">SUM(C6:G6)</f>
         <v>380</v>
       </c>
       <c r="I6" s="8">
@@ -759,8 +790,15 @@
         <f>RANK(I6,$I$4:$I$10,1)+COUNTIFS($I$4:I6,I6)-1</f>
         <v>5</v>
       </c>
+      <c r="O6" s="8">
+        <v>150</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -784,7 +822,7 @@
         <v>200</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>445</v>
       </c>
       <c r="I7" s="8">
@@ -811,8 +849,15 @@
         <f>RANK(I7,$I$4:$I$10,1)+COUNTIFS($I$4:I7,I7)-1</f>
         <v>6</v>
       </c>
+      <c r="O7" s="8">
+        <v>380</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -836,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>451</v>
       </c>
       <c r="I8" s="8">
@@ -863,8 +908,15 @@
         <f>RANK(I8,$I$4:$I$10,1)+COUNTIFS($I$4:I8,I8)-1</f>
         <v>7</v>
       </c>
+      <c r="O8" s="8">
+        <v>380</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -888,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I9" s="8">
@@ -915,8 +967,15 @@
         <f>RANK(I9,$I$4:$I$10,1)+COUNTIFS($I$4:I9,I9)-1</f>
         <v>1</v>
       </c>
+      <c r="O9" s="8">
+        <v>445</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -940,7 +999,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="I10" s="8">
@@ -966,6 +1025,13 @@
       <c r="N10" s="9">
         <f>RANK(I10,$I$4:$I$10,1)+COUNTIFS($I$4:I10,I10)-1</f>
         <v>2</v>
+      </c>
+      <c r="O10" s="8">
+        <v>451</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
